--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teledirectasia-my.sharepoint.com/personal/hyunho_shim_tdcx_com/Documents/KBase DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{C18A079A-2447-4439-85B9-70F2A8BF431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA0247A-C802-431D-99F4-C55E0E4D7817}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{C18A079A-2447-4439-85B9-70F2A8BF431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26845B32-2081-4996-BE6D-E8758D8302B3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="자주쓰는것" sheetId="2" r:id="rId2"/>
+    <sheet name="추가 요청 건" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$54</definedName>
@@ -2871,32 +2872,6 @@
   </si>
   <si>
     <t>보증 프로그램</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 및 연식별 보증 서비스에 대해 알아봅니다.
-&lt;br&gt;
-&lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;Free Maintenance Coupon (5년 또는 10만km까지 일부 소모품 무상 제공)&lt;/div&gt;
-&lt;br&gt;
-&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/my23-maintenance-service-coupon_4x3.jpg" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;차량 차량 정기 점검 서비스(MY23 ~)&lt;/h3&gt;&lt;p&gt;* 전기차를 제외한 모든 차량&lt;/p&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/c40-xc40-recharge-service-coupon_4x3.jpg" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;C40 &amp; XC40 Recharge 차량 정기 점검 서비스 (MY22~)&lt;/h3&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/40--60-cluster-service-coupon4x3.jpg" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;40 &amp; 60 Cluster 프리미엄 서비스 쿠폰 (MY21~)&lt;/h3&gt;&lt;p&gt;※ 2020년 9월부터 판매되는 MY21 차량부터 적용&lt;/p&gt;&lt;p&gt;※ XC40 / XC60 / S60 / CC(V60) 차량에는 별도의 쿠폰 정책 적용&lt;/p&gt;&lt;p&gt;※ 서비스 항목은 현금이나 물품으로 제공되지 않음&lt;/p&gt;&lt;p&gt;※ 본 서비스는 사정에 따라 사전 예고없이 변경될 수 있음&lt;/p&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/240-cluster--60-cluster-premium-service--my17my204x3.png" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;40 &amp; 60 Cluster 프리미엄 서비스 쿠폰 (MY17~MY20)&lt;/h3&gt;&lt;p&gt;※ 2016년 7월부터 판매되는 MY17 차량부터 적용&lt;/p&gt;&lt;p&gt;※ XC40 / XC60 / S60 / CC(V60) 차량에는 별도의 쿠폰 정책 적용&lt;/p&gt;&lt;p&gt;※ 서비스 항목은 현금이나 물품으로 제공되지 않음&lt;/p&gt;&lt;p&gt;※ 본 서비스는 사정에 따라 사전 예고없이 변경될 수 있음&lt;/p&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/90-cluster-service-coupon_4x3.jpg?" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;90 Cluster 프리미엄 서비스 쿠폰 (MY21~)&lt;/h3&gt;&lt;p&gt;※ 2020년 9월부터 판매되는 MY21 차량부터 적용&lt;/p&gt;&lt;p&gt;※ XC90 / S90 / CC(V90) 외의 차량에는 별도의 쿠폰 항목 적용&lt;/p&gt;&lt;p&gt;※ 서비스 항목은 현금이나 물품으로 제공되지 않음&lt;/p&gt;&lt;p&gt;※ 본 서비스는 사정에 따라 사전 예고없이 변경될 수 있음&lt;/p&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/490-cluster-premium-service--my17my204x3.png?" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;90 Cluster 프리미엄 서비스 쿠폰 (MY17~MY20)&lt;/h3&gt;&lt;p&gt;※ 2016년 7월부터 판매되는 MY17 차량부터 적용&lt;/p&gt;&lt;p&gt;※ XC90 / S90 / CC(V90) 외의 차량에는 별도의 쿠폰 항목 적용&lt;/p&gt;&lt;p&gt;※ 서비스 항목은 현금이나 물품으로 제공되지 않음&lt;/p&gt;&lt;p&gt;※ 본 서비스는 사정에 따라 사전 예고없이 변경될 수 있음&lt;/p&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;div&gt;&lt;h3 style="text-align: center;"&gt;무상 소프트웨어 업데이트&lt;/h3&gt;
-&lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;최신 버전의 자동차 소프트웨어 업데이트는 무상으로 제공되며, 볼보에서는 고객 차량을 위한 소프트웨어 개발과 개선에 항상 심혈을 기울이고 있습니다. Volvo Service 2.0에는 무상 소프트웨어 업데이트가 포함되어 있어 서비스를 받으실 때마다 보다 개선된 소프트웨어를 받아 보실 수 있습니다. 차량 기능과 시스템 최척화의 좋은 예로는 에어컨, 엔진 그리고 운전자 정보 등이 있습니다.&lt;/div&gt;
-&lt;br&gt;&lt;div style="text-align: center; font-size: 8pt; color: #000000a3;"&gt;※ 1999년식 이후 전 모델 적용: 단, 2005년식 이전 C70, 2003년식 이전 S40/V40, 2000년식 이전 KC70/V70은 제외&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3 style="text-align: center;"&gt;90 Cluster 무상 딜리버리 서비스&lt;/h3&gt;
-&lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;고객님의 분주함을 편리함으로 바꾸어 드리는 무상 딜리버리 서비스는 고객의 바쁜 시간을 좀더 여유롭게 만들고자 하는 볼보자동차의 서비스 마음이 담겨 있습니다.&lt;/div&gt;
-&lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;90 Cluster 차량 소유 고객님들께 5년 또는 10만km까지 매년 2회 무상 딜리버리 서비스를 제공해 드립니다.&lt;/div&gt;&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3118,29 +3093,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>차량의 예상 주행 거리는 여러 요인에 따라 달라지며 운전자 화면에 표시됩니다. 2024년식 C40 및 XC40 Recharge Pure Electric 차량의 경우 신차를 픽업할 때 운전자 화면에 예상보다 낮은 주행 거리가 표시될 수 있습니다.
-&lt;br&gt;처음 운전하기 전에 표시된 예상 주행 거리는 실제 주행 거리보다 낮을 수 있습니다. 그러나 이는 차량 성능에 영향을 미치지 않습니다.
-&lt;br&gt;
-&lt;br&gt;차량이 운전자의 운전 행동에 적응하고 실제 상황에 따라 예상 주행 거리를 계산하는데는 는 약 2번의 완전한 배터리 사이클이 필요합니다.
-&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
-&lt;br&gt;볼보자동차에서는 예상 주행 거리 값이 절대값이 아니기 때문에 배터리 잔량의 비율을 기준으로 자동차 충전을 계획하는 것이 좋습니다.&lt;/div&gt;
-&lt;h3&gt;주행 가능 거리&lt;/h3&gt;
-차량의 주행 가능 거리는 주로 배터리 및 운전 습관과 관련이 있습니다. 그러나 외부 조건도 영향을 미칠 수 있습니다. 예상 주행 거리는 현재 배터리 충전량으로 주행할 수 있는 거리를 추정한 것입니다. 이는 현재 및 과거의 운전 패턴과 실시간 운전 조건을 기반으로 계산됩니다.
-&lt;br&gt;차량 주행 거리에 영향을 미치는 요인의 예:
-&lt;br&gt;• 속도
-&lt;br&gt;시내 주행 및 교통 상황
-&lt;br&gt;에코 드라이빙
-&lt;br&gt;외부 온도
-&lt;br&gt;배터리 온도
-&lt;br&gt;사전 조절
-&lt;br&gt;온도 조절 설정
-&lt;br&gt;타이어 및 타이어 공기압
-&lt;h4&gt;해당 모델&lt;/h4&gt;
-C40, 2024년식
-&lt;br&gt;XC40 Recharge Pure Electric, 2024년식</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>차량의 주행 가능 거리는 주로 배터리 및 운전 습관과 관련이 있습니다.
 &lt;br&gt;추운 기온과 같은 외부 조건도 영향을 미칠 수 있습니다. 배터리 손상의 위험을 최소화하고 주행 가능 거리를 늘리기 위해 할 수 있는 몇 가지 사항이 있습니다. 예를 들어 저온에서 주차했을 때 차를 충전하거나 장기 보관 중에 배터리 충전량을 일정 범위 내로 유지하는 등입니다.
 &lt;h3&gt;추운 날씨의 주행 가능 거리&lt;/h3&gt;
@@ -3537,7 +3489,31 @@
     <t>고객이 마케팅 문자 수신 거부를 요청하는 경우 아래 양식을 통해 접수합니다.
 &lt;br&gt;
 &lt;br&gt;
-&lt;br&gt;&lt;iframe width="1000px" height="800px" src="https://forms.office.com/Pages/ResponsePage.aspx?id=6WF08iqfUUuAQaTaqBMv9LOtc019w79BsgmzxwDIFwVUNFlEM1MyMTZMNUdPWTRCSlFZVUlXMEk1QS4u&amp;embed=true" frameborder="0" marginwidth="0" marginheight="0" style="border: none; max-width:100%; max-height:100vh" allowfullscreen webkitallowfullscreen mozallowfullscreen msallowfullscreen&gt; &lt;/iframe&gt;</t>
+&lt;br&gt;&lt;iframe width="1000px" height="700px" src="https://forms.office.com/Pages/ResponsePage.aspx?id=6WF08iqfUUuAQaTaqBMv9LOtc019w79BsgmzxwDIFwVUNFlEM1MyMTZMNUdPWTRCSlFZVUlXMEk1QS4u&amp;embed=true" frameborder="0" marginwidth="0" marginheight="0" style="border: none; max-width:100%; max-height:100vh" allowfullscreen webkitallowfullscreen mozallowfullscreen msallowfullscreen&gt; &lt;/iframe&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량의 예상 주행 거리는 여러 요인에 따라 달라지며 운전자 화면에 표시됩니다. 2024년식 C40 및 XC40 Recharge Pure Electric 차량의 경우 신차를 픽업할 때 운전자 화면에 예상보다 낮은 주행 거리가 표시될 수 있습니다.
+&lt;br&gt;처음 운전하기 전에 표시된 예상 주행 거리는 실제 주행 거리보다 낮을 수 있습니다. 그러나 이는 차량 성능에 영향을 미치지 않습니다.
+&lt;br&gt;
+&lt;br&gt;차량이 운전자의 운전 행동에 적응하고 실제 상황에 따라 예상 주행 거리를 계산하는데는 는 약 2번의 완전한 배터리 사이클이 필요합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid black;'&gt; &lt;i class="fa-solid fa-circle-exclamation"&gt;&lt;/i&gt; 참고
+&lt;br&gt;볼보자동차에서는 예상 주행 거리 값이 절대값이 아니기 때문에 배터리 잔량의 비율을 기준으로 자동차 충전을 계획하는 것이 좋습니다.&lt;/div&gt;
+&lt;h3&gt;주행 가능 거리&lt;/h3&gt;
+차량의 주행 가능 거리는 주로 배터리 및 운전 습관과 관련이 있습니다. 그러나 외부 조건도 영향을 미칠 수 있습니다. 예상 주행 거리는 현재 배터리 충전량으로 주행할 수 있는 거리를 추정한 것입니다. 이는 현재 및 과거의 운전 패턴과 실시간 운전 조건을 기반으로 계산됩니다.
+&lt;br&gt;차량 주행 거리에 영향을 미치는 요인의 예:
+&lt;br&gt;• 속도
+&lt;br&gt;• 시내 주행 및 교통 상황
+&lt;br&gt;• 에코 드라이빙
+&lt;br&gt;• 외부 온도
+&lt;br&gt;• 배터리 온도
+&lt;br&gt;• 사전 조절
+&lt;br&gt;• 온도 조절 설정
+&lt;br&gt;• 타이어 및 타이어 공기압
+&lt;h4&gt;해당 모델&lt;/h4&gt;
+C40, 2024년식
+&lt;br&gt;XC40 Recharge Pure Electric, 2024년식</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3548,7 +3524,7 @@
 &lt;br&gt;&lt;img src="https://www.volvocars.com/images/support/img2dadbb4c85f21df1c0a801521b60d8a9_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;탭에서 번개 아이콘을 탭하면 배터리 및 충전 기능을 찾을 수 있습니다.
 &lt;h3&gt;전기차&lt;/h3&gt;
 • 예약 충전. 24시간마다 반복되는 시작 및 종료 시간을 설정합니다. 이 기능은 위치 기반이 아닙니다.
-&lt;h4&gt;푸시 알림&lt;h4&gt;
+&lt;h4&gt;푸시 알림&lt;/h4&gt;
 문제가 발생하여 충전이 중단된 경우 휴대폰에서 푸시 알림을 받도록 선택할 수 있습니다. &lt;img src="https://www.volvocars.com/images/support/img0cf908dc8604718cc0a801526098b70e_1_--_--_VOICEpnghigh.png" width="19" height="19"&gt;탭의 알림 설정(세팅)에서는 어떤 알림을 받고자 하는지 설정할 수 있습니다.
 &lt;h3&gt;초기 인포테인먼트 시스템 (Sensus)가 장착된 Plug-in Hybrid&lt;/h3&gt;
 • 이전 충전 위치. 차량 충전에 사용된 이전 위치를 확인하세요.
@@ -3556,6 +3532,34 @@
 &lt;br&gt;• 위치 기반 예약 충전. 무엇보다도 가격, 이산화탄소 배출량, 집에서의 밤 시간 등 수요에 따라 시작 시간과 종료 시간을 조정합니다.
 &lt;br&gt;• 예약 충전 초과. 나중에 충전을 시작하도록 예약한 경우에도 차량이 즉시 충전을 시작하도록 설정합니다.
 &lt;br&gt;• 위치 기반 알림. 저장된 위치 근처에 도착 후 30분 동안 차량의 전원을 연결하지 않으면 알림이 전송됩니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 및 연식별 보증 서비스에 대해 알아봅니다.
+&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;Free Maintenance Coupon (5년 또는 10만km까지 일부 소모품 무상 제공)
+&lt;br&gt;※ 유효 기간 및 키로수 제한 없이 사용 가능 / 중고차를 구매하여도 승계 받은 경우 사용 가능&lt;/div&gt;
+&lt;br&gt;
+&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/my23-maintenance-service-coupon_4x3.jpg" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;차량 차량 정기 점검 서비스(MY23 ~)&lt;/h3&gt;&lt;p&gt;* 전기차를 제외한 모든 차량&lt;/p&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/c40-xc40-recharge-service-coupon_4x3.jpg" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;C40 &amp; XC40 Recharge 차량 정기 점검 서비스 (MY22~)&lt;/h3&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/40--60-cluster-service-coupon4x3.jpg" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;40 &amp; 60 Cluster 프리미엄 서비스 쿠폰 (MY21~)&lt;/h3&gt;&lt;p&gt;※ 2020년 9월부터 판매되는 MY21 차량부터 적용&lt;/p&gt;&lt;p&gt;※ XC40 / XC60 / S60 / CC(V60) 차량에는 별도의 쿠폰 정책 적용&lt;/p&gt;&lt;p&gt;※ 서비스 항목은 현금이나 물품으로 제공되지 않음&lt;/p&gt;&lt;p&gt;※ 본 서비스는 사정에 따라 사전 예고없이 변경될 수 있음&lt;/p&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/240-cluster--60-cluster-premium-service--my17my204x3.png" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;40 &amp; 60 Cluster 프리미엄 서비스 쿠폰 (MY17~MY20)&lt;/h3&gt;&lt;p&gt;※ 2016년 7월부터 판매되는 MY17 차량부터 적용&lt;/p&gt;&lt;p&gt;※ XC40 / XC60 / S60 / CC(V60) 차량에는 별도의 쿠폰 정책 적용&lt;/p&gt;&lt;p&gt;※ 서비스 항목은 현금이나 물품으로 제공되지 않음&lt;/p&gt;&lt;p&gt;※ 본 서비스는 사정에 따라 사전 예고없이 변경될 수 있음&lt;/p&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/90-cluster-service-coupon_4x3.jpg?" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;90 Cluster 프리미엄 서비스 쿠폰 (MY21~)&lt;/h3&gt;&lt;p&gt;※ 2020년 9월부터 판매되는 MY21 차량부터 적용&lt;/p&gt;&lt;p&gt;※ XC90 / S90 / CC(V90) 외의 차량에는 별도의 쿠폰 항목 적용&lt;/p&gt;&lt;p&gt;※ 서비스 항목은 현금이나 물품으로 제공되지 않음&lt;/p&gt;&lt;p&gt;※ 본 서비스는 사정에 따라 사전 예고없이 변경될 수 있음&lt;/p&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;div style="text-align: center;"&gt;&lt;img src="https://www.volvocars.com/images/v/-/media/market-assets/korea/applications/localpages/test/free-warranty-service_updated/490-cluster-premium-service--my17my204x3.png?" width="592" height="444"&gt;&lt;/div&gt;&lt;div style="text-align: center;"&gt;&lt;h3&gt;90 Cluster 프리미엄 서비스 쿠폰 (MY17~MY20)&lt;/h3&gt;&lt;p&gt;※ 2016년 7월부터 판매되는 MY17 차량부터 적용&lt;/p&gt;&lt;p&gt;※ XC90 / S90 / CC(V90) 외의 차량에는 별도의 쿠폰 항목 적용&lt;/p&gt;&lt;p&gt;※ 서비스 항목은 현금이나 물품으로 제공되지 않음&lt;/p&gt;&lt;p&gt;※ 본 서비스는 사정에 따라 사전 예고없이 변경될 수 있음&lt;/p&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;div&gt;&lt;h3 style="text-align: center;"&gt;무상 소프트웨어 업데이트&lt;/h3&gt;
+&lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;최신 버전의 자동차 소프트웨어 업데이트는 무상으로 제공되며, 볼보에서는 고객 차량을 위한 소프트웨어 개발과 개선에 항상 심혈을 기울이고 있습니다. Volvo Service 2.0에는 무상 소프트웨어 업데이트가 포함되어 있어 서비스를 받으실 때마다 보다 개선된 소프트웨어를 받아 보실 수 있습니다. 차량 기능과 시스템 최척화의 좋은 예로는 에어컨, 엔진 그리고 운전자 정보 등이 있습니다.&lt;/div&gt;
+&lt;br&gt;&lt;div style="text-align: center; font-size: 8pt; color: #000000a3;"&gt;※ 1999년식 이후 전 모델 적용: 단, 2005년식 이전 C70, 2003년식 이전 S40/V40, 2000년식 이전 KC70/V70은 제외&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3 style="text-align: center;"&gt;90 Cluster 무상 딜리버리 서비스&lt;/h3&gt;
+&lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;고객님의 분주함을 편리함으로 바꾸어 드리는 무상 딜리버리 서비스는 고객의 바쁜 시간을 좀더 여유롭게 만들고자 하는 볼보자동차의 서비스 마음이 담겨 있습니다.&lt;/div&gt;
+&lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;90 Cluster 차량 소유 고객님들께 5년 또는 10만km까지 매년 2회 무상 딜리버리 서비스를 제공해 드립니다.&lt;/div&gt;&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4319,8 +4323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4362,7 +4366,7 @@
         <v>192</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -4371,30 +4375,30 @@
     </row>
     <row r="3" spans="1:6" ht="103.5">
       <c r="A3" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" s="16">
         <v>45468</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="86.25">
       <c r="A4" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B4" s="16">
         <v>45468</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -4409,10 +4413,10 @@
         <v>45467</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -4421,14 +4425,14 @@
     </row>
     <row r="6" spans="1:6" ht="327.75">
       <c r="A6" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B6" s="16">
         <v>45467</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -4437,14 +4441,14 @@
     </row>
     <row r="7" spans="1:6" ht="138">
       <c r="A7" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="16">
         <v>45467</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -4453,30 +4457,30 @@
     </row>
     <row r="8" spans="1:6" ht="293.25">
       <c r="A8" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="16">
         <v>45467</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="379.5">
+    <row r="9" spans="1:6" ht="396.75">
       <c r="A9" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="16">
         <v>45467</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -4485,14 +4489,14 @@
     </row>
     <row r="10" spans="1:6" ht="409.5">
       <c r="A10" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" s="16">
         <v>45467</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -4501,14 +4505,14 @@
     </row>
     <row r="11" spans="1:6" ht="87.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B11" s="16">
         <v>45467</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -4517,14 +4521,14 @@
     </row>
     <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B12" s="16">
         <v>45467</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -4533,14 +4537,14 @@
     </row>
     <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="16">
         <v>45467</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -4549,17 +4553,17 @@
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="43">
         <v>45467</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -4572,7 +4576,7 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
@@ -4798,7 +4802,7 @@
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -5920,7 +5924,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -6172,4 +6176,17 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2724F613-5838-497B-B6B8-C2A9E93CF8A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teledirectasia-my.sharepoint.com/personal/hyunho_shim_tdcx_com/Documents/KBase DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{C18A079A-2447-4439-85B9-70F2A8BF431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26845B32-2081-4996-BE6D-E8758D8302B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F4AE2-E419-479A-9019-0ED9F7E32A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="265">
   <si>
     <t>Title</t>
   </si>
@@ -3562,6 +3562,26 @@
 &lt;br&gt;&lt;div style="text-align: center; color: #000000a3;"&gt;90 Cluster 차량 소유 고객님들께 5년 또는 10만km까지 매년 2회 무상 딜리버리 서비스를 제공해 드립니다.&lt;/div&gt;&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>차량 출고 후 1년이 되는 때에 고객에게 제공하는 1주년 쿠폰에 대해 고객이 문의하는 경우 해당 내용을 참고합니다.
+&lt;br&gt;
+&lt;h3&gt;쿠폰 사용처&lt;/h3&gt;
+서비스센터를 통해 고객이 해당 쿠폰을 제시한 후 Volvo Collection을 구입할 수 있습니다.
+&lt;h3&gt;사용 방법&lt;/h3&gt;
+- 해당 쿠폰 바코드나 포스 기능이 있는 부분은 아니라 현장에서 담당 딜러나 어드바이저가 쿠폰의 '사용 완료' 버튼 누르면 할인 받고 사용 완료 처리되는 프로세스 입니다.
+&lt;br&gt;- 이에 고객이 실수로 '사용 완료' 버튼 누를 경우 더이상 사용 불가하며, 재발행 되지 않는다고 명시되어 있습니다.
+&lt;br&gt;- 사용 완료 버튼을 누른 후에는 복원이 원칙적으로 불가합니다.
+&lt;h3&gt;사용 가능 기간&lt;/h3&gt;
+발행 기간은 발행 후 6개월까지
+&lt;br&gt;- 쿠폰 시작일 : 차량 출고일 + 1년 + 1개월의 1일
+&lt;br&gt;- 쿠폰 종료일 : 쿠폰 시작일 + 6개월의 1일
+&lt;br&gt;- 쿠폰 만료 노출일 : 쿠폰종료일 + 1달 의 1일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 1주년 쿠폰에 대해 문의하는 경우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3644,186 +3664,11 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3843,11 +3688,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -3860,12 +3735,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3873,134 +3769,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4018,10 +3809,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4321,1597 +4108,1656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="17"/>
-    <col min="3" max="3" width="11.5546875" style="12"/>
+    <col min="1" max="1" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="11.5546875" style="1"/>
     <col min="4" max="4" width="166.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" ht="224.25">
+      <c r="A2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="409.5">
+      <c r="A3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B3" s="4">
         <v>45468</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="103.5">
-      <c r="A3" s="10" t="s">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="103.5">
+      <c r="A4" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B4" s="4">
         <v>45468</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="86.25">
-      <c r="A4" s="10" t="s">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="86.25">
+      <c r="A5" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B5" s="4">
         <v>45468</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="409.5">
-      <c r="A5" s="10" t="s">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="409.5">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B6" s="4">
         <v>45467</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="327.75">
-      <c r="A6" s="10" t="s">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="327.75">
+      <c r="A7" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B7" s="4">
         <v>45467</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="138">
-      <c r="A7" s="10" t="s">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="138">
+      <c r="A8" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B8" s="4">
         <v>45467</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="293.25">
-      <c r="A8" s="10" t="s">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="293.25">
+      <c r="A9" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B9" s="4">
         <v>45467</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="396.75">
-      <c r="A9" s="10" t="s">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="87.75" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B10" s="4">
         <v>45467</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="409.5">
-      <c r="A10" s="10" t="s">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="409.5">
+      <c r="A11" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B11" s="4">
         <v>45467</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="87.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="172.5">
+      <c r="A12" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B12" s="4">
         <v>45467</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="409.5">
-      <c r="A12" s="10" t="s">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="409.5">
+      <c r="A13" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B13" s="4">
         <v>45467</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="409.5">
-      <c r="A13" s="10" t="s">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="409.5">
+      <c r="A14" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B14" s="4">
         <v>45467</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="409.5">
-      <c r="A14" s="42" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="409.5">
+      <c r="A15" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B15" s="17">
         <v>45467</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="409.5">
-      <c r="A15" s="10" t="s">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="409.5">
+      <c r="A16" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B16" s="4">
         <v>45464</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="172.5">
-      <c r="A16" s="9" t="s">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="172.5">
+      <c r="A17" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B17" s="8">
         <v>45463</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="409.5">
-      <c r="A17" s="10" t="s">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="409.5">
+      <c r="A18" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B18" s="4">
         <v>45463</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="86.25">
-      <c r="A18" s="10" t="s">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="86.25">
+      <c r="A19" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B19" s="4">
         <v>45463</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="379.5">
-      <c r="A19" s="10" t="s">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="379.5">
+      <c r="A20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B20" s="4">
         <v>45463</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="4" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="327.75">
-      <c r="A20" s="10" t="s">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="327.75">
+      <c r="A21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B21" s="4">
         <v>45463</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="189.75">
-      <c r="A21" s="10" t="s">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="189.75">
+      <c r="A22" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B22" s="4">
         <v>45463</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="103.5">
-      <c r="A22" s="10" t="s">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="103.5">
+      <c r="A23" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B23" s="4">
         <v>45463</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="409.5">
-      <c r="A23" s="10" t="s">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="409.5">
+      <c r="A24" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B24" s="4">
         <v>45463</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="409.5">
-      <c r="A24" s="10" t="s">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="409.5">
+      <c r="A25" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B25" s="4">
         <v>45463</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="409.5">
-      <c r="A25" s="10" t="s">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="409.5">
+      <c r="A26" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B26" s="4">
         <v>45463</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="327.75">
-      <c r="A26" s="10" t="s">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="327.75">
+      <c r="A27" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B27" s="4">
         <v>45463</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="327.75">
-      <c r="A27" s="10" t="s">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="327.75">
+      <c r="A28" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B28" s="4">
         <v>45463</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="207">
-      <c r="A28" s="10" t="s">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="207">
+      <c r="A29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B29" s="4">
         <v>45463</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="4" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="409.5">
-      <c r="A29" s="10" t="s">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="409.5">
+      <c r="A30" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B30" s="4">
         <v>45463</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="409.5">
-      <c r="A30" s="10" t="s">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="409.5">
+      <c r="A31" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B31" s="4">
         <v>45463</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="4" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="409.5">
-      <c r="A31" s="10" t="s">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="409.5">
+      <c r="A32" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B32" s="4">
         <v>45463</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="4" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="409.5">
-      <c r="A32" s="10" t="s">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="409.5">
+      <c r="A33" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B33" s="4">
         <v>45463</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="4" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="276">
-      <c r="A33" s="10" t="s">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="276">
+      <c r="A34" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B34" s="4">
         <v>45463</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="4" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="409.5">
-      <c r="A34" s="10" t="s">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="409.5">
+      <c r="A35" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B35" s="4">
         <v>45463</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="4" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="409.5">
-      <c r="A35" s="10" t="s">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="409.5">
+      <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B36" s="4">
         <v>45462</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="409.5">
-      <c r="A36" s="10" t="s">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="409.5">
+      <c r="A37" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B37" s="4">
         <v>45461</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="224.25">
-      <c r="A37" s="9" t="s">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="224.25">
+      <c r="A38" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B38" s="8">
         <v>45461</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="120.75">
-      <c r="A38" s="9" t="s">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="120.75">
+      <c r="A39" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B39" s="8">
         <v>45461</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="409.5">
-      <c r="A39" s="10" t="s">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="409.5">
+      <c r="A40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B40" s="4">
         <v>45461</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="293.25">
-      <c r="A40" s="10" t="s">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="293.25">
+      <c r="A41" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B41" s="4">
         <v>45461</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" ht="409.5">
-      <c r="A41" s="10" t="s">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="409.5">
+      <c r="A42" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B42" s="4">
         <v>45461</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="172.5">
-      <c r="A42" s="10" t="s">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="172.5">
+      <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B43" s="4">
         <v>45460</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="155.25">
-      <c r="A43" s="10" t="s">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="155.25">
+      <c r="A44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B44" s="4">
         <v>45460</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="409.5">
-      <c r="A44" s="10" t="s">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="409.5">
+      <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B45" s="4">
         <v>45460</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="207">
-      <c r="A45" s="10" t="s">
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="207">
+      <c r="A46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B46" s="4">
         <v>45460</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="409.5">
-      <c r="A46" s="10" t="s">
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="409.5">
+      <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B47" s="4">
         <v>45460</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" ht="258.75">
-      <c r="A47" s="32" t="s">
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="258.75">
+      <c r="A48" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B48" s="4">
         <v>45460</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C48" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D48" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E48" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="138">
-      <c r="A48" s="11" t="s">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="138">
+      <c r="A49" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="35">
+      <c r="B49" s="4">
         <v>45459</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" ht="409.5">
-      <c r="A49" s="33" t="s">
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="409.5">
+      <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="34">
+      <c r="B50" s="4">
         <v>45457</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="276">
-      <c r="A50" s="27" t="s">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="276">
+      <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B51" s="4">
         <v>45456</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D51" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E51" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="409.5">
-      <c r="A51" s="11" t="s">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="409.5">
+      <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B52" s="4">
         <v>45456</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E52" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="310.5">
-      <c r="A52" s="27" t="s">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" ht="310.5">
+      <c r="A53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B53" s="4">
         <v>45456</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C53" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E53" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="138">
-      <c r="A53" s="27" t="s">
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="138">
+      <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B54" s="4">
         <v>45456</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E54" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="409.5">
-      <c r="A54" s="27" t="s">
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="409.5">
+      <c r="A55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="34">
+      <c r="B55" s="4">
         <v>45455</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D55" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E55" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="310.5">
-      <c r="A55" s="27" t="s">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="310.5">
+      <c r="A56" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B56" s="4">
         <v>45455</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D56" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E56" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="409.5">
-      <c r="A56" s="25" t="s">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="409.5">
+      <c r="A57" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B57" s="4">
         <v>45455</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C57" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D57" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E57" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="409.5">
-      <c r="A57" s="27" t="s">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="409.5">
+      <c r="A58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="34">
+      <c r="B58" s="4">
         <v>45455</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D58" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E58" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="409.5">
-      <c r="A58" s="25" t="s">
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="409.5">
+      <c r="A59" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B59" s="4">
         <v>45455</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C59" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D59" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E59" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="310.5">
-      <c r="A59" s="21" t="s">
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" ht="310.5">
+      <c r="A60" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B60" s="4">
         <v>45455</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C60" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D60" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E60" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="409.5">
-      <c r="A60" s="21" t="s">
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="409.5">
+      <c r="A61" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B61" s="4">
         <v>45454</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D61" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E61" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="189.75">
-      <c r="A61" s="21" t="s">
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="189.75">
+      <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B62" s="4">
         <v>45454</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E62" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="224.25">
-      <c r="A62" s="25" t="s">
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" ht="57.75" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B63" s="4">
         <v>45454</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C63" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D63" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E63" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="103.5">
-      <c r="A63" s="21" t="s">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="103.5">
+      <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B64" s="4">
         <v>45454</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="57.75" customHeight="1">
-      <c r="A64" s="21" t="s">
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="207">
+      <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B65" s="4">
         <v>45454</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D65" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E64" s="40" t="s">
+      <c r="E65" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="189.75">
-      <c r="A65" s="21" t="s">
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="189.75">
+      <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B66" s="4">
         <v>45454</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D66" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E66" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="409.5">
-      <c r="A66" s="21" t="s">
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" ht="409.5">
+      <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B67" s="4">
         <v>45454</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C67" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D67" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E67" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="409.5">
-      <c r="A67" s="21" t="s">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="409.5">
+      <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B68" s="4">
         <v>45454</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D68" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E68" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="241.5">
-      <c r="A68" s="21" t="s">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" ht="241.5">
+      <c r="A69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B69" s="4">
         <v>45453</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C69" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D69" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="40" t="s">
+      <c r="E69" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="207">
-      <c r="A69" s="21" t="s">
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="207">
+      <c r="A70" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="22">
+      <c r="B70" s="4">
         <v>45453</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D70" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E70" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="155.25">
-      <c r="A70" s="21" t="s">
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="155.25">
+      <c r="A71" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B71" s="4">
         <v>45453</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C71" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D71" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E71" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="207">
-      <c r="A71" s="21" t="s">
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" ht="207">
+      <c r="A72" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="22">
+      <c r="B72" s="4">
         <v>45453</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D72" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E72" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="120.75">
-      <c r="A72" s="21" t="s">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="120.75">
+      <c r="A73" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="22">
+      <c r="B73" s="4">
         <v>45453</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C73" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E73" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="276">
-      <c r="A73" s="21" t="s">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="276">
+      <c r="A74" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="22">
+      <c r="B74" s="4">
         <v>45453</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C74" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D74" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E74" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="409.5">
-      <c r="A74" s="21" t="s">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="409.5">
+      <c r="A75" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B75" s="4">
         <v>45453</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C75" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D75" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E75" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="396.75">
-      <c r="A75" s="21" t="s">
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="396.75">
+      <c r="A76" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="22">
+      <c r="B76" s="4">
         <v>45453</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D76" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E76" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="409.5">
-      <c r="A76" s="24" t="s">
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" ht="409.5">
+      <c r="A77" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B77" s="4">
         <v>45452</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C77" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D77" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E77" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="276">
-      <c r="A77" s="24" t="s">
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="276">
+      <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B78" s="4">
         <v>45452</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C78" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D78" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E78" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="86.25">
-      <c r="A78" s="24" t="s">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" ht="86.25">
+      <c r="A79" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="28">
+      <c r="B79" s="8">
         <v>45450</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C79" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D79" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E79" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="409.5">
-      <c r="A79" s="24" t="s">
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="409.5">
+      <c r="A80" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B80" s="8">
         <v>45450</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C80" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D80" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E80" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="41"/>
-    </row>
-    <row r="80" spans="1:6" ht="69">
-      <c r="A80" s="24" t="s">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="1:6" ht="69">
+      <c r="A81" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="28">
+      <c r="B81" s="8">
         <v>45450</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C81" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D81" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E80" s="26" t="s">
+      <c r="E81" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="69">
-      <c r="A81" s="24" t="s">
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" ht="69">
+      <c r="A82" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="28">
+      <c r="B82" s="8">
         <v>45450</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C82" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D82" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E82" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="224.25">
-      <c r="A82" s="24" t="s">
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" ht="224.25">
+      <c r="A83" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B82" s="28">
+      <c r="B83" s="8">
         <v>45450</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C83" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D83" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E82" s="26" t="s">
+      <c r="E83" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="103.5">
-      <c r="A83" s="24" t="s">
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="103.5">
+      <c r="A84" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B84" s="8">
         <v>45450</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C84" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D84" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E84" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="51.75">
-      <c r="A84" s="24" t="s">
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="51.75">
+      <c r="A85" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="28">
+      <c r="B85" s="8">
         <v>45450</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C85" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D85" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E85" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="409.5">
-      <c r="A85" s="24" t="s">
+      <c r="F85" s="10"/>
+    </row>
+    <row r="86" spans="1:6" ht="409.5">
+      <c r="A86" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="28">
+      <c r="B86" s="8">
         <v>45450</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C86" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D86" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E85" s="26" t="s">
+      <c r="E86" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="51.75">
-      <c r="A86" s="24" t="s">
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" ht="51.75">
+      <c r="A87" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B87" s="8">
         <v>45450</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C87" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D87" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E87" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="69">
-      <c r="A87" s="24" t="s">
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="69">
+      <c r="A88" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B88" s="8">
         <v>45450</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C88" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="D88" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E88" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="69">
-      <c r="A88" s="24" t="s">
+      <c r="F88" s="10"/>
+    </row>
+    <row r="89" spans="1:6" ht="69">
+      <c r="A89" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B88" s="28">
+      <c r="B89" s="8">
         <v>45450</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C89" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D89" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E89" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="103.5">
-      <c r="A89" s="24" t="s">
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="103.5">
+      <c r="A90" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="28">
+      <c r="B90" s="8">
         <v>45450</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C90" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D90" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E90" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="86.25">
-      <c r="A90" s="21" t="s">
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="86.25">
+      <c r="A91" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B90" s="28">
+      <c r="B91" s="8">
         <v>45450</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C91" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D91" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E90" s="26" t="s">
+      <c r="E91" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="103.5">
-      <c r="A91" s="24" t="s">
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:6" ht="103.5">
+      <c r="A92" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="28">
+      <c r="B92" s="8">
         <v>45450</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C92" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="D92" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E92" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="86.25">
-      <c r="A92" s="24" t="s">
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="86.25">
+      <c r="A93" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B93" s="8">
         <v>45450</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C93" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D92" s="29" t="s">
+      <c r="D93" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E93" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="86.25">
-      <c r="A93" s="24" t="s">
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" ht="86.25">
+      <c r="A94" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B93" s="22">
+      <c r="B94" s="4">
         <v>45450</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C94" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D94" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E94" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F94" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F53" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
+  <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F93">
-      <sortCondition descending="1" ref="B1:B53"/>
+      <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5930,244 +5776,244 @@
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6182,7 +6028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2724F613-5838-497B-B6B8-C2A9E93CF8A0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData/>

--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F4AE2-E419-479A-9019-0ED9F7E32A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A086A8-7110-438C-8383-53448164D370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4110,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>

--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A086A8-7110-438C-8383-53448164D370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DFB906-3690-493C-96BE-8A3236F21284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -1975,21 +1975,6 @@
 &lt;br&gt;4. 수신된 메일을 확인 후, 아래 메일로 에스컬레이션을 진행합니다. &lt;a style="color: red;"&gt;(하기 메일을 고객에게 제공하지 마십시오.)&lt;/a&gt;
 &lt;br&gt;5. TO: hyungjoon.moon@volvocars.com 
 &lt;br&gt;6. CC: seokjoon.chang@volvocars.com; sangyun.lee.2@volvocars.com; donghoon.han@volvocars.com; boogyu.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 서비스센터에 내방했으나, 여러 이유로 보증 적용이 되지 않아 문의를 줄 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;서비스센터 현장의 PST의 의견에 따라 진행된 경우 이 의견을 무시하지 마십시오.
-&lt;br&gt;또한 이 내용을 VCK로 에스컬레이션 하지 마십시오.&lt;/br&gt;
-&lt;br&gt;
-&lt;br&gt;서비스센터로 에스컬레이션하여 PST의 판단으로서 진행된 상황인지 확인합니다.
-&lt;br&gt;PST 판단하에 진행된 건인 경우, 고객에게 다음과 같은 안내할 것을 권장합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;em&gt;&lt;string&gt;"보증에 대한 확인을 진행하였으나, 동일하게 답변이 되는 점에 대해 사과드립니다.
-&lt;br&gt;해당 내용으로 추가적으로 확인했으나 보증 적용은 어렵습니다."&lt;/em&gt;&lt;/string&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3580,6 +3565,21 @@
   </si>
   <si>
     <t>고객이 1주년 쿠폰에 대해 문의하는 경우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 서비스센터에 내방했으나, 여러 이유로 보증 적용이 되지 않아 문의를 줄 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;서비스센터 현장의 PST의 의견에 따라 진행된 경우 이 의견을 무시하지 마십시오.
+&lt;br&gt;또한 이 내용을 VCK로 에스컬레이션 하지 마십시오.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;서비스센터로 에스컬레이션하여 PST의 판단으로서 진행된 상황인지 확인합니다.
+&lt;br&gt;PST 판단하에 진행된 건인 경우, 고객에게 다음과 같은 안내할 것을 권장합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;em&gt;&lt;string&gt;"보증에 대한 확인을 진행하였으나, 동일하게 답변이 되는 점에 대해 사과드립니다.
+&lt;br&gt;해당 내용으로 추가적으로 확인했으나 보증 적용은 어렵습니다."&lt;/em&gt;&lt;/string&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4111,7 +4111,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4144,32 +4144,32 @@
     </row>
     <row r="2" spans="1:6" ht="224.25">
       <c r="A2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="4">
         <v>45468</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="409.5">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="4">
         <v>45468</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>9</v>
@@ -4178,105 +4178,107 @@
     </row>
     <row r="4" spans="1:6" ht="103.5">
       <c r="A4" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="4">
         <v>45468</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="86.25">
       <c r="A5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="4">
         <v>45468</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="409.5">
+    <row r="6" spans="1:6" ht="207">
       <c r="A6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="409.5">
+      <c r="A7" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="327.75">
-      <c r="A7" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="B7" s="4">
         <v>45467</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="D7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="327.75">
+      <c r="A8" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="138">
-      <c r="A8" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="B8" s="4">
         <v>45467</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="293.25">
+    <row r="9" spans="1:6" ht="138">
       <c r="A9" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B9" s="4">
         <v>45467</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" s="4">
         <v>45467</v>
@@ -4286,52 +4288,52 @@
         <v>260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:6" ht="396.75">
       <c r="A11" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B11" s="4">
         <v>45467</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="172.5">
+    <row r="12" spans="1:6" ht="409.5">
       <c r="A12" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B12" s="4">
         <v>45467</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="409.5">
+    <row r="13" spans="1:6" ht="172.5">
       <c r="A13" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B13" s="4">
         <v>45467</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
@@ -4340,14 +4342,14 @@
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B14" s="4">
         <v>45467</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
@@ -4355,161 +4357,161 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="409.5">
-      <c r="A15" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="A15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="4">
         <v>45467</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>253</v>
+        <v>9</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
-      <c r="A16" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B16" s="4">
-        <v>45464</v>
+      <c r="A16" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="17">
+        <v>45467</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="409.5">
+      <c r="A17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="172.5">
-      <c r="A17" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="172.5">
+      <c r="A18" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="8">
         <v>45463</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D18" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="409.5">
-      <c r="A18" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="86.25">
+    <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B19" s="4">
         <v>45463</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="379.5">
+    <row r="20" spans="1:6" ht="86.25">
       <c r="A20" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B20" s="4">
         <v>45463</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="327.75">
+    <row r="21" spans="1:6" ht="379.5">
       <c r="A21" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B21" s="4">
         <v>45463</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="189.75">
+    <row r="22" spans="1:6" ht="327.75">
       <c r="A22" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B22" s="4">
         <v>45463</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="103.5">
+    <row r="23" spans="1:6" ht="189.75">
       <c r="A23" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" s="4">
         <v>45463</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="409.5">
+    <row r="24" spans="1:6" ht="103.5">
       <c r="A24" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B24" s="4">
         <v>45463</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
@@ -4518,14 +4520,14 @@
     </row>
     <row r="25" spans="1:6" ht="409.5">
       <c r="A25" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B25" s="4">
         <v>45463</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>9</v>
@@ -4534,30 +4536,30 @@
     </row>
     <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B26" s="4">
         <v>45463</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="327.75">
+    <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B27" s="4">
         <v>45463</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>9</v>
@@ -4566,46 +4568,46 @@
     </row>
     <row r="28" spans="1:6" ht="327.75">
       <c r="A28" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B28" s="4">
         <v>45463</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="207">
+    <row r="29" spans="1:6" ht="327.75">
       <c r="A29" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" s="4">
         <v>45463</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="409.5">
+    <row r="30" spans="1:6" ht="207">
       <c r="A30" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B30" s="4">
         <v>45463</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
@@ -4614,14 +4616,14 @@
     </row>
     <row r="31" spans="1:6" ht="409.5">
       <c r="A31" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B31" s="4">
         <v>45463</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
@@ -4630,14 +4632,14 @@
     </row>
     <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B32" s="4">
         <v>45463</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
@@ -4646,46 +4648,46 @@
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="276">
+    <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="409.5">
+    <row r="35" spans="1:6" ht="276">
       <c r="A35" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
@@ -4694,394 +4696,392 @@
     </row>
     <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="B36" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>13</v>
+        <v>231</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="409.5">
       <c r="A37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4">
+        <v>45462</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="409.5">
+      <c r="A38" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B38" s="4">
         <v>45461</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="224.25">
-      <c r="A38" s="6" t="s">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="224.25">
+      <c r="A39" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B38" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="120.75">
-      <c r="A39" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="B39" s="8">
         <v>45461</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="120.75">
+      <c r="A40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="409.5">
-      <c r="A40" s="3" t="s">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="409.5">
+      <c r="A41" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B40" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="293.25">
-      <c r="A41" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="B41" s="4">
         <v>45461</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="409.5">
+    <row r="42" spans="1:6" ht="293.25">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B42" s="4">
         <v>45461</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="172.5">
+    <row r="43" spans="1:6" ht="409.5">
       <c r="A43" s="3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="B43" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="155.25">
+    <row r="44" spans="1:6" ht="172.5">
       <c r="A44" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" s="4">
         <v>45460</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="409.5">
+    <row r="45" spans="1:6" ht="155.25">
       <c r="A45" s="3" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B45" s="4">
         <v>45460</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="207">
+    <row r="46" spans="1:6" ht="409.5">
       <c r="A46" s="3" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="B46" s="4">
         <v>45460</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="409.5">
+    <row r="47" spans="1:6" ht="207">
       <c r="A47" s="3" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B47" s="4">
         <v>45460</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>25</v>
+        <v>163</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="258.75">
+    <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="B48" s="4">
         <v>45460</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="258.75">
+      <c r="A49" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" ht="138">
-      <c r="A49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="409.5">
+    <row r="50" spans="1:6" ht="138">
       <c r="A50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="409.5">
+      <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4">
         <v>45457</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" ht="276">
-      <c r="A51" s="3" t="s">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="276">
+      <c r="A52" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B51" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="409.5">
-      <c r="A52" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B52" s="4">
         <v>45456</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="310.5">
+    <row r="53" spans="1:6" ht="409.5">
       <c r="A53" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B53" s="4">
         <v>45456</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="138">
+    <row r="54" spans="1:6" ht="310.5">
       <c r="A54" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B54" s="4">
         <v>45456</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="138">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" ht="409.5">
-      <c r="A55" s="3" t="s">
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="409.5">
+      <c r="A56" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B55" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" ht="310.5">
-      <c r="A56" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B56" s="4">
         <v>45455</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="409.5">
+    <row r="57" spans="1:6" ht="310.5">
       <c r="A57" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B57" s="4">
         <v>45455</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>9</v>
@@ -5090,16 +5090,16 @@
     </row>
     <row r="58" spans="1:6" ht="409.5">
       <c r="A58" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B58" s="4">
         <v>45455</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>9</v>
@@ -5108,70 +5108,70 @@
     </row>
     <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" s="4">
         <v>45455</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="310.5">
+    <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B60" s="4">
         <v>45455</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="409.5">
+    <row r="61" spans="1:6" ht="310.5">
       <c r="A61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" ht="409.5">
+      <c r="A62" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B61" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="189.75">
-      <c r="A62" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B62" s="4">
         <v>45454</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>13</v>
@@ -5180,43 +5180,43 @@
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B63" s="4">
         <v>45454</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="103.5">
+    <row r="64" spans="1:6" ht="224.25">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B64" s="4">
         <v>45454</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="207">
+    <row r="65" spans="1:6" ht="103.5">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B65" s="4">
         <v>45454</v>
@@ -5225,7 +5225,7 @@
         <v>61</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>13</v>
@@ -5585,7 +5585,7 @@
         <v>123</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>13</v>
@@ -5729,7 +5729,7 @@
         <v>151</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>13</v>
@@ -5747,7 +5747,7 @@
         <v>153</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>9</v>
@@ -5756,7 +5756,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F93">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F94">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>
@@ -5777,7 +5777,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>

--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DFB906-3690-493C-96BE-8A3236F21284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA83887-9427-4AA7-9FCE-DF01F6114410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -3548,6 +3548,25 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>고객이 1주년 쿠폰에 대해 문의하는 경우</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 서비스센터에 내방했으나, 여러 이유로 보증 적용이 되지 않아 문의를 줄 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;서비스센터 현장의 PST의 의견에 따라 진행된 경우 이 의견을 무시하지 마십시오.
+&lt;br&gt;또한 이 내용을 VCK로 에스컬레이션 하지 마십시오.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;서비스센터로 에스컬레이션하여 PST의 판단으로서 진행된 상황인지 확인합니다.
+&lt;br&gt;PST 판단하에 진행된 건인 경우, 고객에게 다음과 같은 안내할 것을 권장합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;em&gt;&lt;string&gt;"보증에 대한 확인을 진행하였으나, 동일하게 답변이 되는 점에 대해 사과드립니다.
+&lt;br&gt;해당 내용으로 추가적으로 확인했으나 보증 적용은 어렵습니다."&lt;/em&gt;&lt;/string&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>차량 출고 후 1년이 되는 때에 고객에게 제공하는 1주년 쿠폰에 대해 고객이 문의하는 경우 해당 내용을 참고합니다.
 &lt;br&gt;
 &lt;h3&gt;쿠폰 사용처&lt;/h3&gt;
@@ -3557,29 +3576,10 @@
 &lt;br&gt;- 이에 고객이 실수로 '사용 완료' 버튼 누를 경우 더이상 사용 불가하며, 재발행 되지 않는다고 명시되어 있습니다.
 &lt;br&gt;- 사용 완료 버튼을 누른 후에는 복원이 원칙적으로 불가합니다.
 &lt;h3&gt;사용 가능 기간&lt;/h3&gt;
-발행 기간은 발행 후 6개월까지
+- 발행 기간은 발행 후 6개월까지
 &lt;br&gt;- 쿠폰 시작일 : 차량 출고일 + 1년 + 1개월의 1일
 &lt;br&gt;- 쿠폰 종료일 : 쿠폰 시작일 + 6개월의 1일
 &lt;br&gt;- 쿠폰 만료 노출일 : 쿠폰종료일 + 1달 의 1일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 1주년 쿠폰에 대해 문의하는 경우</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 서비스센터에 내방했으나, 여러 이유로 보증 적용이 되지 않아 문의를 줄 수 있습니다.
-&lt;br&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;서비스센터 현장의 PST의 의견에 따라 진행된 경우 이 의견을 무시하지 마십시오.
-&lt;br&gt;또한 이 내용을 VCK로 에스컬레이션 하지 마십시오.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;서비스센터로 에스컬레이션하여 PST의 판단으로서 진행된 상황인지 확인합니다.
-&lt;br&gt;PST 판단하에 진행된 건인 경우, 고객에게 다음과 같은 안내할 것을 권장합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;em&gt;&lt;string&gt;"보증에 대한 확인을 진행하였으나, 동일하게 답변이 되는 점에 대해 사과드립니다.
-&lt;br&gt;해당 내용으로 추가적으로 확인했으나 보증 적용은 어렵습니다."&lt;/em&gt;&lt;/string&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4111,7 +4111,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4144,14 +4144,14 @@
     </row>
     <row r="2" spans="1:6" ht="224.25">
       <c r="A2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="4">
         <v>45468</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>252</v>
@@ -4219,7 +4219,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>13</v>

--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA83887-9427-4AA7-9FCE-DF01F6114410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD10740-779E-4D49-8E17-108B62BA6D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -3181,174 +3181,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>고객이 서비스센터에 대한 불만이나 확인을 요청할 때 아래를 참조합니다.
-&lt;br&gt;
-&lt;h3&gt;서비스센터 및 딜러사 메일 양식
-&lt;br&gt;&lt;button class="logging-button" width="350" onclick="logging16()"&gt;[메일] 서비스센터 및 딜러사 전달 메일 양식&lt;/button&gt;
-&lt;button class="logging-button" onclick="logging17()"&gt;[메일] 서비스센터 출동 요청 메일 양식&lt;/button&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 대치&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; changseop.park@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 강남 삼성&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; hyunwoo.you@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 성수&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 분당 서현&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('ahn.jeongsik@hvolvo.com')"&gt;안정식&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; hwajeong.ko@hvolvo.com; yongcheol.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 강남 율현&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('euiseop.hwang@hvolvo.com')"&gt;황의섭&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; kyoungha.son@hvolvo.com; hyunseok.kim@hvolvo.com; jooyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 수원&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeongkyu.moon@hvolvo.com')"&gt;문정규&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; byeongwon.mun@hvolvo.com; kimoon.kim@hvolvo.com; yoonyoung.choi@hvolvo.com; hyunjoo.lee@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 인천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('chongjin.an@hvolvo.com')"&gt;안종진&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dongjun.choi@hvolvo.com; kangrae.cho@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 성수센터&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 대전&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yongil.jeon@hvolvo.com')"&gt;전용일&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; sungsik.kim@hvolvo.com; myungjin.oh@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;에이치모터스 | 청주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeguk.ko@hvolvo.com')"&gt;고재국&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 군산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('wankyu.kim@ivymotors.co.kr; jeonghun.song@ivymotors.co.kr; dongmyung.yi@ivymotors.co.kr; minsoo.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 광주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yokeun.jo@ivymotors.co.kr;')"&gt;조요근&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; inho.choi@ivymotors.co.kr; geunsik.lee@ivymotors.co.kr; byunghwa.lee@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 전주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr'; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 순천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyungchul.mun@ivymotors.co.kr')"&gt;문경철&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; mingyu.kim@ivymotors.co.kr; kyungchul.mun@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이비모터스 | 제주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('daehwan.an@ivymotors.co.kr')"&gt;안대환&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; byunghee.choi@ivymotors.co.kr; bumseok.kang@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 대구&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; juyoung.yun@volvoty.co.kr;  bumseok.kang@ivymotors.co.kr; hyeonggeun.gil@volvoty.co.kr; yonghyeok.lee@volvoty.co.kr; rakmin.kim@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 서대구&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hoiyol.kwon@volvoty.co.kr')"&gt;권회열&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; jongwoon.yun@volvoty.co.kr; kyungkyu.song@volvoty.co.kr; jaewoo.lee@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;태영모터스 | 포항&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dogun.hwang@volvoty.co.kr; sungjun.lee@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 양평&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hakje.lee@chvolvo.co.kr')"&gt;이학제&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; jin.jeong@chvolvo.co.kr; jeongkuk.lee@chvolvo.co.kr; sungchul.kim@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 동대문&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('byungchang.kim@chvolvo.co.kr')"&gt;김병창&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr;  younghwan.kim@chvolvo.co.kr; jongbin.kim@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 의정부&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;팀장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hyuckjin.kim@chvolvo.co.kr')"&gt;김혁진&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; soonjik.kwon@chvolvo.co.kr; myoungjin.ko@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;천하자동차 | 구리&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;선임&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongmo.lee@chvolvo.co.kr')"&gt;이종모&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; subong.han@chvolvo.co.kr; jongmo.lee@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;&lt;hr&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 창원&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('myunguk.heo@ironmotors.co.kr')"&gt;허명욱&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; suho.park@ironmotors.co.kr; chungsuk.kim@ironmotors.co.kr; junwon.hwang@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 김해&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungyong.jang@ironmotors.co.kr')"&gt;장성용&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; junewoo.heo@ironmotors.co.kr; hyunjin.park@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 광안&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaewoo.cho@ironmotors.co.kr')"&gt;조재우&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; bongjun.kim@ironmotors.co.kr; dagyeong.yu@ironmotors.co.kr; hwaseop.song@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 해운대&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('younggon.kim@ironmotors.co.kr')"&gt;김영곤&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; byeongguen.song@ironmotors.co.kr; youbin.kim@ironmotors.co.kr; wonho.chae@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아이언모터스 | 진주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('dongkyu.kim@ironmotors.co.kr')"&gt;김동규&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; jaewon.jung@ironmotors.co.kr; balgeum.lee@ironmotors.co.kr; hyunseung.kim@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 일산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yghong@aju.co.kr')"&gt;홍영기&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; sjjung2@aju.co.kr; jsmo@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 안양&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jwlee8@aju.co.kr')"&gt;이조원&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; itkim@aju.co.kr; yopark@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 영등포 문래&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr')"&gt;서일선&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; jschoi@aju.co.kr; hschoi@aju.co.kr; icjoo@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;아주오토리움 | 부천&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('leejs@aju.co.kr')"&gt;이재석&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; dwlee@aju.co.kr; ghson@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 송파&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeonseong_jeong@kolon.com')"&gt;정전성&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; haneul_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 서초&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyoungmo_choi@kolon.com')"&gt;최경모&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; seungeun_jeoung@kolon.com; yunwoo_lee@kolon.com; yongsuk_park@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 원주&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeseop_shim@kolon.com')"&gt;심재섭&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; sugeun_hwang@kolon.com; sunyoung_kwon@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 천안&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jungwoo_ma@kolon.com; wongyun_kil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 울산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kibum_lim@kolon.com')"&gt;임기범&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; minho_kim2@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 판교&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongho_kim@kolon.com')"&gt;김종호&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com;  youngdon_son@kolon.com; hyunmok_cho1@kolon.com; sunghan_im@kolon.com; baegil_jung1@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 강릉&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com')"&gt;김태길&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; bonggeun_seok@kolon.com; youngdon_son@kolon.com; juneyoung_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 서산&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jonghwan_seol@kolon.com; donghyun_gil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
-&lt;hr&gt;
-&lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
-&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
-&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>8월 부산 Hey Family FAQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3580,6 +3412,174 @@
 &lt;br&gt;- 쿠폰 시작일 : 차량 출고일 + 1년 + 1개월의 1일
 &lt;br&gt;- 쿠폰 종료일 : 쿠폰 시작일 + 6개월의 1일
 &lt;br&gt;- 쿠폰 만료 노출일 : 쿠폰종료일 + 1달 의 1일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 서비스센터에 대한 불만이나 확인을 요청할 때 아래를 참조합니다.
+&lt;br&gt;
+&lt;h3&gt;서비스센터 및 딜러사 메일 양식
+&lt;br&gt;&lt;button class="logging-button" width="350" onclick="logging16()"&gt;[메일] 서비스센터 및 딜러사 전달 메일 양식&lt;/button&gt;
+&lt;button class="logging-button" onclick="logging17()"&gt;[메일] 서비스센터 출동 요청 메일 양식&lt;/button&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 대치&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; changseop.park@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 강남 삼성&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungwoo.park@hvolvo.com')"&gt;박성우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongsuen.shin@hvolvo.com; hyunwoo.you@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 성수&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 분당 서현&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('ahn.jeongsik@hvolvo.com')"&gt;안정식&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; hwajeong.ko@hvolvo.com; yongcheol.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 강남 율현&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('euiseop.hwang@hvolvo.com')"&gt;황의섭&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; kyoungha.son@hvolvo.com; hyunseok.kim@hvolvo.com; jooyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 수원&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeongkyu.moon@hvolvo.com')"&gt;문정규&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; byeongwon.mun@hvolvo.com; kimoon.kim@hvolvo.com; yoonyoung.choi@hvolvo.com; hyunjoo.lee@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 인천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('chongjin.an@hvolvo.com')"&gt;안종진&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; dohyung.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dongjun.choi@hvolvo.com; kangrae.cho@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 성수센터&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sangpyo.joo@hvolvo.com')"&gt;주상표&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; kyuyong.lee@hvolvo.com; byeonggeun.yoo@hvolvo.com; taeyoung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 대전&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yongil.jeon@hvolvo.com')"&gt;전용일&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; sungsik.kim@hvolvo.com; myungjin.oh@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;에이치모터스 | 청주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeguk.ko@hvolvo.com')"&gt;고재국&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('jinyong.kim@hvolvo.com; hongyeul.shin@hvolvo.com; dohyung.kim@hvolvo.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 군산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; jeonghun.song@ivymotors.co.kr; dongmyung.yi@ivymotors.co.kr; minsoo.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 광주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yokeun.jo@ivymotors.co.kr;')"&gt;조요근&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; inho.choi@ivymotors.co.kr; geunsik.lee@ivymotors.co.kr; byunghwa.lee@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 전주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('geumyoug.hwang@ivymotors.co.kr')"&gt;황금용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr; seoksoon.sim@ivymotors.co.kr'; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 순천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyungchul.mun@ivymotors.co.kr')"&gt;문경철&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; mingyu.kim@ivymotors.co.kr; kyungchul.mun@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이비모터스 | 제주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('daehwan.an@ivymotors.co.kr')"&gt;안대환&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('yonghyuk.im@ivymotors.co.kr; byunghee.choi@ivymotors.co.kr; bumseok.kang@ivymotors.co.kr; wankyu.kim@ivymotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 대구&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; juyoung.yun@volvoty.co.kr;  bumseok.kang@ivymotors.co.kr; hyeonggeun.gil@volvoty.co.kr; yonghyeok.lee@volvoty.co.kr; rakmin.kim@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 서대구&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hoiyol.kwon@volvoty.co.kr')"&gt;권회열&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; jongwoon.yun@volvoty.co.kr; kyungkyu.song@volvoty.co.kr; jaewoo.lee@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;태영모터스 | 포항&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongwoon.yun@volvoty.co.kr')"&gt;윤종운&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('woosik.yoon@volvoty.co.kr; hyeonggeun.gil@volvoty.co.kr; dogun.hwang@volvoty.co.kr; sungjun.lee@volvoty.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 양평&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hakje.lee@chvolvo.co.kr')"&gt;이학제&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; jin.jeong@chvolvo.co.kr; jeongkuk.lee@chvolvo.co.kr; sungchul.kim@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 동대문&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('byungchang.kim@chvolvo.co.kr')"&gt;김병창&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr;  younghwan.kim@chvolvo.co.kr; jongbin.kim@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 의정부&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;팀장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('hyuckjin.kim@chvolvo.co.kr')"&gt;김혁진&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; soonjik.kwon@chvolvo.co.kr; myoungjin.ko@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;천하자동차 | 구리&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;선임&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongmo.lee@chvolvo.co.kr')"&gt;이종모&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('byungjae.choi@chvolvo.co.kr; subong.han@chvolvo.co.kr; jongmo.lee@chvolvo.co.kr; wonsun.hwang@chvolvo.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;&lt;hr&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 창원&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('myunguk.heo@ironmotors.co.kr')"&gt;허명욱&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; suho.park@ironmotors.co.kr; chungsuk.kim@ironmotors.co.kr; junwon.hwang@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 김해&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungyong.jang@ironmotors.co.kr')"&gt;장성용&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; junewoo.heo@ironmotors.co.kr; hyunjin.park@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 광안&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaewoo.cho@ironmotors.co.kr')"&gt;조재우&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; bongjun.kim@ironmotors.co.kr; dagyeong.yu@ironmotors.co.kr; hwaseop.song@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 해운대&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('younggon.kim@ironmotors.co.kr')"&gt;김영곤&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; byeongguen.song@ironmotors.co.kr; youbin.kim@ironmotors.co.kr; wonho.chae@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아이언모터스 | 진주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('dongkyu.kim@ironmotors.co.kr')"&gt;김동규&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('Inho.kim@ironmotors.co.kr; jungwoo.park@ironmotors.co.kr; jaewon.jung@ironmotors.co.kr; balgeum.lee@ironmotors.co.kr; hyunseung.kim@ironmotors.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 일산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('yghong@aju.co.kr')"&gt;홍영기&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; sjjung2@aju.co.kr; jsmo@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 안양&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jwlee8@aju.co.kr')"&gt;이조원&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; itkim@aju.co.kr; yopark@aju.co.kr; yjlim@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 영등포 문래&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr')"&gt;서일선&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; jschoi@aju.co.kr; hschoi@aju.co.kr; icjoo@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;아주오토리움 | 부천&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('leejs@aju.co.kr')"&gt;이재석&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('isseo@aju.co.kr; yjlim@aju.co.kr; dwlee@aju.co.kr; ghson@aju.co.kr; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 송파&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jeonseong_jeong@kolon.com')"&gt;정전성&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; haneul_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 서초&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kyoungmo_choi@kolon.com')"&gt;최경모&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; seungeun_jeoung@kolon.com; yunwoo_lee@kolon.com; yongsuk_park@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 원주&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jaeseop_shim@kolon.com')"&gt;심재섭&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; sugeun_hwang@kolon.com; sunyoung_kwon@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 천안&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jungwoo_ma@kolon.com; wongyun_kil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 울산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('kibum_lim@kolon.com')"&gt;임기범&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; minho_kim2@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 판교&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('jongho_kim@kolon.com')"&gt;김종호&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com;  youngdon_son@kolon.com; hyunmok_cho1@kolon.com; sunghan_im@kolon.com; baegil_jung1@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 강릉&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com')"&gt;김태길&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; bonggeun_seok@kolon.com; youngdon_son@kolon.com; juneyoung_jang@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 서산&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('rockchun_choi@kolon.com')"&gt;최락천&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; jonghwan_seol@kolon.com; donghyun_gil@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;
+&lt;hr&gt;
+&lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
+&lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
+&lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4110,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4144,17 +4144,17 @@
     </row>
     <row r="2" spans="1:6" ht="224.25">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="4">
         <v>45468</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -4169,7 +4169,7 @@
         <v>191</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>9</v>
@@ -4178,30 +4178,30 @@
     </row>
     <row r="4" spans="1:6" ht="103.5">
       <c r="A4" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" s="4">
         <v>45468</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="86.25">
       <c r="A5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="4">
         <v>45468</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>9</v>
@@ -4219,7 +4219,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>13</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>174</v>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
@@ -4374,17 +4374,17 @@
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="17">
         <v>45467</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>9</v>

--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD10740-779E-4D49-8E17-108B62BA6D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7599CC4D-3AF4-42EA-9ECD-ED741E82C166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="267">
   <si>
     <t>Title</t>
   </si>
@@ -3580,6 +3580,17 @@
 &lt;h3&gt;코오롱 오토모티브 | 하남&lt;/h3&gt;
 &lt;div&gt;&lt;h4&gt;지점장&lt;/h4&gt;&lt;button class="contact-button" onclick="copyEmail('sungjoon_kim@kolon.com')"&gt;김성준&lt;/button&gt;
 &lt;button class="contact-button" onclick="copyEmail('taegil_kim@kolon.com; youngdon_son@kolon.com; byeongchan@kolon.com; dongjune.lee@volvocars.com; youngha.kim@volvocars.com; hankoo.lee@volvocars.com; sunyong.kim@volvocars.com; seungjin.lee@volvocars.com; kyungran.song@volvocars.com; jeongho.suh@volvocars.com; heemin.park@volvocars.com; hyunho.shim@volvocars.com; jihyun.park@volvocars.com')"&gt;참조 인원&lt;/button&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 보험사의 커넥티드카 특약 할인에 대해서 문의할 수 있습니다.
+&lt;br&gt;
+&lt;br&gt;&lt;strong&gt;대부분 보험사의 할인 조건에 따르면, 볼보 자동차는 커넥티드카 특약 할인 대상이 아닙니다.&lt;/strong&gt;
+&lt;br&gt;그에 대한 사유는 각 보험사에 문의하도록 안내합니다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 특약 할인에 대해 문의하는 경우</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4108,10 +4119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4142,134 +4153,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="224.25">
+    <row r="2" spans="1:6" ht="69">
       <c r="A2" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B2" s="4">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="409.5">
+    <row r="3" spans="1:6" ht="224.25">
       <c r="A3" s="3" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="B3" s="4">
         <v>45468</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
+        <v>263</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="103.5">
+    <row r="4" spans="1:6" ht="409.5">
       <c r="A4" s="3" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="B4" s="4">
         <v>45468</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="86.25">
+    <row r="5" spans="1:6" ht="103.5">
       <c r="A5" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="4">
         <v>45468</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="207">
+    <row r="6" spans="1:6" ht="86.25">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="B6" s="4">
         <v>45468</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="207">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="409.5">
-      <c r="A7" s="3" t="s">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="409.5">
+      <c r="A8" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="327.75">
-      <c r="A8" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="B8" s="4">
         <v>45467</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="138">
+    <row r="9" spans="1:6" ht="327.75">
       <c r="A9" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B9" s="4">
         <v>45467</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>9</v>
@@ -4278,78 +4289,78 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" s="4">
         <v>45467</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="396.75">
+    <row r="11" spans="1:6" ht="293.25">
       <c r="A11" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B11" s="4">
         <v>45467</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="409.5">
+    <row r="12" spans="1:6" ht="396.75">
       <c r="A12" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B12" s="4">
         <v>45467</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="172.5">
+    <row r="13" spans="1:6" ht="409.5">
       <c r="A13" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="4">
         <v>45467</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="409.5">
+    <row r="14" spans="1:6" ht="172.5">
       <c r="A14" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B14" s="4">
         <v>45467</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
@@ -4358,14 +4369,14 @@
     </row>
     <row r="15" spans="1:6" ht="409.5">
       <c r="A15" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B15" s="4">
         <v>45467</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
@@ -4373,161 +4384,161 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="409.5">
-      <c r="A16" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="A16" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="4">
         <v>45467</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="409.5">
-      <c r="A17" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="4">
-        <v>45464</v>
+      <c r="A17" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="17">
+        <v>45467</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="409.5">
+      <c r="A18" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="172.5">
-      <c r="A18" s="6" t="s">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="172.5">
+      <c r="A19" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B19" s="8">
         <v>45463</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="409.5">
-      <c r="A19" s="3" t="s">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="409.5">
+      <c r="A20" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B19" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="86.25">
-      <c r="A20" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="B20" s="4">
         <v>45463</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" ht="379.5">
+    <row r="21" spans="1:6" ht="86.25">
       <c r="A21" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B21" s="4">
         <v>45463</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="327.75">
+    <row r="22" spans="1:6" ht="379.5">
       <c r="A22" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B22" s="4">
         <v>45463</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="189.75">
+    <row r="23" spans="1:6" ht="327.75">
       <c r="A23" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B23" s="4">
         <v>45463</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="103.5">
+    <row r="24" spans="1:6" ht="189.75">
       <c r="A24" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="4">
         <v>45463</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="409.5">
+    <row r="25" spans="1:6" ht="103.5">
       <c r="A25" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B25" s="4">
         <v>45463</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>9</v>
@@ -4536,14 +4547,14 @@
     </row>
     <row r="26" spans="1:6" ht="409.5">
       <c r="A26" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="4">
         <v>45463</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
@@ -4552,30 +4563,30 @@
     </row>
     <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B27" s="4">
         <v>45463</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="327.75">
+    <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B28" s="4">
         <v>45463</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>9</v>
@@ -4584,46 +4595,46 @@
     </row>
     <row r="29" spans="1:6" ht="327.75">
       <c r="A29" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B29" s="4">
         <v>45463</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="207">
+    <row r="30" spans="1:6" ht="327.75">
       <c r="A30" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" s="4">
         <v>45463</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="409.5">
+    <row r="31" spans="1:6" ht="207">
       <c r="A31" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B31" s="4">
         <v>45463</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
@@ -4632,14 +4643,14 @@
     </row>
     <row r="32" spans="1:6" ht="409.5">
       <c r="A32" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B32" s="4">
         <v>45463</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
@@ -4648,14 +4659,14 @@
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -4664,46 +4675,46 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="276">
+    <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="409.5">
+    <row r="36" spans="1:6" ht="276">
       <c r="A36" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B36" s="4">
         <v>45463</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
@@ -4712,394 +4723,392 @@
     </row>
     <row r="37" spans="1:6" ht="409.5">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="B37" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>13</v>
+        <v>231</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4">
+        <v>45462</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="409.5">
+      <c r="A39" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4">
         <v>45461</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="224.25">
-      <c r="A39" s="6" t="s">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="224.25">
+      <c r="A40" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B39" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="120.75">
-      <c r="A40" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="B40" s="8">
         <v>45461</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="120.75">
+      <c r="A41" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="409.5">
-      <c r="A41" s="3" t="s">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="409.5">
+      <c r="A42" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B41" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="293.25">
-      <c r="A42" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="B42" s="4">
         <v>45461</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" ht="409.5">
+    <row r="43" spans="1:6" ht="293.25">
       <c r="A43" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B43" s="4">
         <v>45461</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="172.5">
+    <row r="44" spans="1:6" ht="409.5">
       <c r="A44" s="3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="B44" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="155.25">
+    <row r="45" spans="1:6" ht="172.5">
       <c r="A45" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45" s="4">
         <v>45460</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="409.5">
+    <row r="46" spans="1:6" ht="155.25">
       <c r="A46" s="3" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B46" s="4">
         <v>45460</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="207">
+    <row r="47" spans="1:6" ht="409.5">
       <c r="A47" s="3" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="B47" s="4">
         <v>45460</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="409.5">
+    <row r="48" spans="1:6" ht="207">
       <c r="A48" s="3" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="B48" s="4">
         <v>45460</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>25</v>
+        <v>163</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="258.75">
+    <row r="49" spans="1:6" ht="409.5">
       <c r="A49" s="3" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="B49" s="4">
         <v>45460</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="258.75">
+      <c r="A50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" ht="138">
-      <c r="A50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" ht="409.5">
+    <row r="51" spans="1:6" ht="138">
       <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="409.5">
+      <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B52" s="4">
         <v>45457</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="276">
-      <c r="A52" s="3" t="s">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" ht="276">
+      <c r="A53" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B52" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" ht="409.5">
-      <c r="A53" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B53" s="4">
         <v>45456</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="310.5">
+    <row r="54" spans="1:6" ht="409.5">
       <c r="A54" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4">
         <v>45456</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="138">
+    <row r="55" spans="1:6" ht="310.5">
       <c r="A55" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B55" s="4">
         <v>45456</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="138">
+      <c r="A56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" ht="409.5">
-      <c r="A56" s="3" t="s">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="409.5">
+      <c r="A57" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B56" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" ht="310.5">
-      <c r="A57" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B57" s="4">
         <v>45455</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="409.5">
+    <row r="58" spans="1:6" ht="310.5">
       <c r="A58" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B58" s="4">
         <v>45455</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>9</v>
@@ -5108,16 +5117,16 @@
     </row>
     <row r="59" spans="1:6" ht="409.5">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B59" s="4">
         <v>45455</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>9</v>
@@ -5126,205 +5135,205 @@
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B60" s="4">
         <v>45455</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" ht="310.5">
+    <row r="61" spans="1:6" ht="409.5">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B61" s="4">
         <v>45455</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="409.5">
+    <row r="62" spans="1:6" ht="310.5">
       <c r="A62" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B62" s="4">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B63" s="4">
         <v>45454</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="224.25">
+    <row r="64" spans="1:6" ht="189.75">
       <c r="A64" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B64" s="4">
         <v>45454</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="103.5">
+    <row r="65" spans="1:6" ht="224.25">
       <c r="A65" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B65" s="4">
         <v>45454</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="189.75">
+    <row r="66" spans="1:6" ht="103.5">
       <c r="A66" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B66" s="4">
         <v>45454</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="409.5">
+    <row r="67" spans="1:6" ht="189.75">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B67" s="4">
         <v>45454</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" ht="409.5">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4">
         <v>45454</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="241.5">
+    <row r="69" spans="1:6" ht="409.5">
       <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45454</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="241.5">
+      <c r="A70" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B69" s="4">
-        <v>45453</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="207">
-      <c r="A70" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B70" s="4">
         <v>45453</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="155.25">
+    <row r="71" spans="1:6" ht="207">
       <c r="A71" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4">
         <v>45453</v>
@@ -5333,430 +5342,448 @@
         <v>77</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="207">
+    <row r="72" spans="1:6" ht="155.25">
       <c r="A72" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4">
         <v>45453</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="120.75">
+    <row r="73" spans="1:6" ht="207">
       <c r="A73" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B73" s="4">
         <v>45453</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="276">
+    <row r="74" spans="1:6" ht="120.75">
       <c r="A74" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B74" s="4">
         <v>45453</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="409.5">
+    <row r="75" spans="1:6" ht="276">
       <c r="A75" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B75" s="4">
         <v>45453</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" ht="396.75">
+    <row r="76" spans="1:6" ht="409.5">
       <c r="A76" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B76" s="4">
         <v>45453</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="409.5">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:6" ht="396.75">
+      <c r="A77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45453</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" ht="409.5">
+      <c r="A78" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B77" s="4">
-        <v>45452</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="276">
-      <c r="A78" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="B78" s="4">
         <v>45452</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="86.25">
+    <row r="79" spans="1:6" ht="276">
       <c r="A79" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45452</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="86.25">
+      <c r="A80" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="B79" s="8">
-        <v>45450</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="409.5">
-      <c r="A80" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="B80" s="8">
         <v>45450</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="1:6" ht="69">
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="409.5">
       <c r="A81" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B81" s="8">
         <v>45450</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="10"/>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" ht="69">
       <c r="A82" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B82" s="8">
         <v>45450</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="224.25">
+    <row r="83" spans="1:6" ht="69">
       <c r="A83" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B83" s="8">
         <v>45450</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="103.5">
+    <row r="84" spans="1:6" ht="224.25">
       <c r="A84" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B84" s="8">
         <v>45450</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="51.75">
+    <row r="85" spans="1:6" ht="103.5">
       <c r="A85" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B85" s="8">
         <v>45450</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="409.5">
+    <row r="86" spans="1:6" ht="51.75">
       <c r="A86" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B86" s="8">
         <v>45450</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="51.75">
+    <row r="87" spans="1:6" ht="409.5">
       <c r="A87" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B87" s="8">
         <v>45450</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="69">
+    <row r="88" spans="1:6" ht="51.75">
       <c r="A88" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B88" s="8">
         <v>45450</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" ht="69">
       <c r="A89" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B89" s="8">
         <v>45450</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" ht="103.5">
+    <row r="90" spans="1:6" ht="69">
       <c r="A90" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B90" s="8">
         <v>45450</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="86.25">
-      <c r="A91" s="3" t="s">
-        <v>144</v>
+    <row r="91" spans="1:6" ht="103.5">
+      <c r="A91" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B91" s="8">
         <v>45450</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="103.5">
-      <c r="A92" s="6" t="s">
-        <v>147</v>
+    <row r="92" spans="1:6" ht="86.25">
+      <c r="A92" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B92" s="8">
         <v>45450</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="86.25">
+    <row r="93" spans="1:6" ht="103.5">
       <c r="A93" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B93" s="8">
         <v>45450</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F93" s="10"/>
     </row>
     <row r="94" spans="1:6" ht="86.25">
       <c r="A94" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="8">
+        <v>45450</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="95" spans="1:6" ht="86.25">
+      <c r="A95" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B95" s="4">
         <v>45450</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F94" s="10"/>
+      <c r="F95" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F94">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F95">
       <sortCondition descending="1" ref="B1:B52"/>
     </sortState>
   </autoFilter>

--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95891810-CC4A-4C90-BC5B-B2D309478704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78114EE-B76B-48E5-AC5D-B4AE326FC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -4126,8 +4126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87A06B-13B6-954E-AEC2-75F552B99212}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4174,214 +4174,216 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="224.25">
+    <row r="3" spans="1:6" ht="258.75">
       <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45469</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="224.25">
+      <c r="A4" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45468</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="409.5">
-      <c r="A4" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="B4" s="4">
         <v>45468</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
+        <v>262</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="103.5">
+    <row r="5" spans="1:6" ht="409.5">
       <c r="A5" s="3" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="B5" s="4">
         <v>45468</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="D5" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="86.25">
+    <row r="6" spans="1:6" ht="103.5">
       <c r="A6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" s="4">
         <v>45468</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="207">
+    <row r="7" spans="1:6" ht="86.25">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="B7" s="4">
         <v>45468</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="207">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45468</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="409.5">
-      <c r="A8" s="3" t="s">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="409.5">
+      <c r="A9" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45467</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="327.75">
-      <c r="A9" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="B9" s="4">
         <v>45467</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B10" s="4">
         <v>45467</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="293.25">
+    <row r="11" spans="1:6" ht="138">
       <c r="A11" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="4">
         <v>45467</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="396.75">
+    <row r="12" spans="1:6" ht="293.25">
       <c r="A12" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="4">
         <v>45467</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="409.5">
+    <row r="13" spans="1:6" ht="396.75">
       <c r="A13" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" s="4">
         <v>45467</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="172.5">
+    <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="4">
         <v>45467</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="409.5">
+    <row r="15" spans="1:6" ht="172.5">
       <c r="A15" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15" s="4">
         <v>45467</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
@@ -4390,14 +4392,14 @@
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B16" s="4">
         <v>45467</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
@@ -4405,161 +4407,161 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="409.5">
-      <c r="A17" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="17">
+      <c r="A17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="4">
         <v>45467</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="409.5">
-      <c r="A18" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" s="4">
-        <v>45464</v>
+      <c r="A18" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="17">
+        <v>45467</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="409.5">
+      <c r="A19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45464</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="172.5">
-      <c r="A19" s="6" t="s">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="172.5">
+      <c r="A20" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B20" s="8">
         <v>45463</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="409.5">
-      <c r="A20" s="3" t="s">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="409.5">
+      <c r="A21" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B20" s="4">
-        <v>45463</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="86.25">
-      <c r="A21" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="B21" s="4">
         <v>45463</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="379.5">
+    <row r="22" spans="1:6" ht="86.25">
       <c r="A22" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B22" s="4">
         <v>45463</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="327.75">
+    <row r="23" spans="1:6" ht="379.5">
       <c r="A23" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B23" s="4">
         <v>45463</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="189.75">
+    <row r="24" spans="1:6" ht="327.75">
       <c r="A24" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B24" s="4">
         <v>45463</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="103.5">
+    <row r="25" spans="1:6" ht="189.75">
       <c r="A25" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="4">
         <v>45463</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="409.5">
+    <row r="26" spans="1:6" ht="103.5">
       <c r="A26" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B26" s="4">
         <v>45463</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
@@ -4568,14 +4570,14 @@
     </row>
     <row r="27" spans="1:6" ht="409.5">
       <c r="A27" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="4">
         <v>45463</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>9</v>
@@ -4584,30 +4586,30 @@
     </row>
     <row r="28" spans="1:6" ht="409.5">
       <c r="A28" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B28" s="4">
         <v>45463</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="327.75">
+    <row r="29" spans="1:6" ht="409.5">
       <c r="A29" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B29" s="4">
         <v>45463</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>9</v>
@@ -4616,46 +4618,46 @@
     </row>
     <row r="30" spans="1:6" ht="327.75">
       <c r="A30" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30" s="4">
         <v>45463</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="207">
+    <row r="31" spans="1:6" ht="327.75">
       <c r="A31" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="4">
         <v>45463</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="409.5">
+    <row r="32" spans="1:6" ht="207">
       <c r="A32" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B32" s="4">
         <v>45463</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
@@ -4664,14 +4666,14 @@
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -4680,14 +4682,14 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
@@ -4696,46 +4698,46 @@
     </row>
     <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="276">
+    <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B36" s="4">
         <v>45463</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="409.5">
+    <row r="37" spans="1:6" ht="276">
       <c r="A37" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B37" s="4">
         <v>45463</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
@@ -4744,394 +4746,392 @@
     </row>
     <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="B38" s="4">
-        <v>45462</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>45463</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>13</v>
+        <v>230</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="409.5">
       <c r="A39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4">
+        <v>45462</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="409.5">
+      <c r="A40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B40" s="4">
         <v>45461</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="224.25">
-      <c r="A40" s="6" t="s">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="224.25">
+      <c r="A41" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B40" s="8">
-        <v>45461</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="120.75">
-      <c r="A41" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="B41" s="8">
         <v>45461</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="120.75">
+      <c r="A42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="8">
+        <v>45461</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="409.5">
-      <c r="A42" s="3" t="s">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="409.5">
+      <c r="A43" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B42" s="4">
-        <v>45461</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="293.25">
-      <c r="A43" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="B43" s="4">
         <v>45461</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" ht="409.5">
+    <row r="44" spans="1:6" ht="293.25">
       <c r="A44" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B44" s="4">
         <v>45461</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="172.5">
+    <row r="45" spans="1:6" ht="409.5">
       <c r="A45" s="3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B45" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" ht="155.25">
+    <row r="46" spans="1:6" ht="172.5">
       <c r="A46" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" s="4">
         <v>45460</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" ht="409.5">
+    <row r="47" spans="1:6" ht="155.25">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B47" s="4">
         <v>45460</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" ht="207">
+    <row r="48" spans="1:6" ht="409.5">
       <c r="A48" s="3" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="B48" s="4">
         <v>45460</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" ht="409.5">
+    <row r="49" spans="1:6" ht="207">
       <c r="A49" s="3" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B49" s="4">
         <v>45460</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" ht="258.75">
+    <row r="50" spans="1:6" ht="409.5">
       <c r="A50" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B50" s="4">
         <v>45460</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="258.75">
+      <c r="A51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="4">
+        <v>45460</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" ht="138">
-      <c r="A51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="4">
-        <v>45459</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" ht="409.5">
+    <row r="52" spans="1:6" ht="138">
       <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4">
+        <v>45459</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" ht="409.5">
+      <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B53" s="4">
         <v>45457</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" ht="276">
-      <c r="A53" s="3" t="s">
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="276">
+      <c r="A54" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B53" s="4">
-        <v>45456</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" ht="409.5">
-      <c r="A54" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B54" s="4">
         <v>45456</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" ht="310.5">
+    <row r="55" spans="1:6" ht="409.5">
       <c r="A55" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B55" s="4">
         <v>45456</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="138">
+    <row r="56" spans="1:6" ht="310.5">
       <c r="A56" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B56" s="4">
         <v>45456</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" ht="138">
+      <c r="A57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="4">
+        <v>45456</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" ht="409.5">
-      <c r="A57" s="3" t="s">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" ht="409.5">
+      <c r="A58" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B57" s="4">
-        <v>45455</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" ht="310.5">
-      <c r="A58" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="B58" s="4">
         <v>45455</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="409.5">
+    <row r="59" spans="1:6" ht="310.5">
       <c r="A59" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B59" s="4">
         <v>45455</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>9</v>
@@ -5140,16 +5140,16 @@
     </row>
     <row r="60" spans="1:6" ht="409.5">
       <c r="A60" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B60" s="4">
         <v>45455</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>9</v>
@@ -5158,34 +5158,34 @@
     </row>
     <row r="61" spans="1:6" ht="409.5">
       <c r="A61" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B61" s="4">
         <v>45455</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="310.5">
+    <row r="62" spans="1:6" ht="409.5">
       <c r="A62" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B62" s="4">
         <v>45455</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>9</v>
@@ -5194,91 +5194,91 @@
     </row>
     <row r="63" spans="1:6" ht="57.75" customHeight="1">
       <c r="A63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="4">
+        <v>45455</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" ht="409.5">
+      <c r="A64" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B63" s="4">
-        <v>45454</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="189.75">
-      <c r="A64" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B64" s="4">
         <v>45454</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="224.25">
+    <row r="65" spans="1:6" ht="189.75">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B65" s="4">
         <v>45454</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="103.5">
+    <row r="66" spans="1:6" ht="224.25">
       <c r="A66" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B66" s="4">
         <v>45454</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="258.75">
+    <row r="67" spans="1:6" ht="103.5">
       <c r="A67" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B67" s="4">
         <v>45454</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F67" s="10"/>
     </row>

--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78114EE-B76B-48E5-AC5D-B4AE326FC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779FF0F-E069-4099-B279-671FE792BA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
+    <workbookView xWindow="31365" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2558,28 +2558,6 @@
   </si>
   <si>
     <t>3.0.3 소프트웨어 이슈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료 보충 시 올바른 연료를 사용해야 합니다. 가솔린은 여러 주행 유형에 맞춰 지정된 여러 옥탄가로 제공됩니다.
-&lt;br&gt;
-&lt;br&gt;잘 알려진 생산자의 가솔린만 사용하십시오. 품질이 의심스런 연료는 절대로 사용하지 마십시오. 가솔린은 EN 228 표준을 충족시켜야 합니다.
-&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;• 에탄올을 10%(용적 기준) 이하 함유한 연료는 사용할 수 있습니다.
-&lt;br&gt;• EN 228 E10 가솔린(에탄올 10% 이하)은 사용할 수 있습니다.
-&lt;br&gt;• E10보다 에탄올을 많이 함유한 가솔린(에탄올 10% 초과)(예 : E85)은 사용할 수 없습니다.&lt;/div&gt;
-&lt;br&gt;
-&lt;br&gt;&lt;h3&gt;옥탄가&lt;/h3&gt;
-&lt;br&gt;• RON 95은 일반 주행에 사용할 수 있습니다.
-&lt;br&gt;• RON 98은 좋은 출력과 낮은 연료 소비를 위해 권장합니다.
-&lt;br&gt;• RON 95 미만의 옥탄가는 사용하지 않아야 합니다.
-&lt;br&gt;
-&lt;br&gt;+38 °C (100 °F)가 넘는 온도에서 주행할 때에는 채택된 성능과 연료 경제성을 위해 최고 옥탄가의 연료를 사용할 것을 권장합니다.
-&lt;br&gt;
-&lt;br&gt;&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
-&lt;br&gt;• 촉매 변환기 손상을 방지하려면 무연 가솔린만 사용하십시오.
-&lt;br&gt;• 금속성 첨가제가 포함된 연료는 사용하지 마십시오.
-&lt;br&gt;• 볼보가 권장하지 않는 첨가제는 사용하지 마십시오. &lt;/div&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3582,9 +3560,33 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>연료 보충 시 올바른 연료를 사용해야 합니다. 가솔린은 여러 주행 유형에 맞춰 지정된 여러 옥탄가로 제공됩니다.
+&lt;br&gt;
+&lt;br&gt;잘 알려진 생산자의 가솔린만 사용하십시오. 품질이 의심스런 연료는 절대로 사용하지 마십시오. 가솔린은 EN 228 표준을 충족시켜야 합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;• 에탄올을 10%(용적 기준) 이하 함유한 연료는 사용할 수 있습니다.
+&lt;br&gt;• EN 228 E10 가솔린(에탄올 10% 이하)은 사용할 수 있습니다.
+&lt;br&gt;• E10보다 에탄올을 많이 함유한 가솔린(에탄올 10% 초과)(예 : E85)은 사용할 수 없습니다.&lt;/div&gt;
+&lt;br&gt;
+&lt;br&gt;&lt;h3&gt;옥탄가&lt;/h3&gt;
+&lt;br&gt;• RON 95은 일반 주행에 사용할 수 있습니다.
+&lt;br&gt;• RON 98은 좋은 출력과 낮은 연료 소비를 위해 권장합니다.
+&lt;br&gt;• RON 95 미만의 옥탄가는 사용하지 않아야 합니다.
+&lt;br&gt;
+&lt;br&gt;+38 °C (100 °F)가 넘는 온도에서 주행할 때에는 채택된 성능과 연료 경제성을 위해 최고 옥탄가의 연료를 사용할 것을 권장합니다.
+&lt;br&gt;
+&lt;br&gt;&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;• 촉매 변환기 손상을 방지하려면 무연 가솔린만 사용하십시오.
+&lt;br&gt;• 금속성 첨가제가 포함된 연료는 사용하지 마십시오.
+&lt;br&gt;• 볼보가 권장하지 않는 첨가제는 사용하지 마십시오. &lt;/div&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>고객이 Hej Volvo 앱의 차량 정보 동기화를 위해 문의하는 경우 아래 기준으로 진행합니다.
 &lt;br&gt;
-&lt;br&gt;Hej Volvo앱은 DMS 상 계약자 이름과 전화번호가 일치하면 자동으로 차량 정보가 연동 됩니다.
+&lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
+&lt;br&gt;Hej Volvo앱은 DMS 상 계약자 이름과 전화번호가 일치하면 자동으로 차량 정보가 연동 됩니다.&lt;/div&gt;
 &lt;br&gt;
 &lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀에서는 절대 실운전자 정보를 수정하면 안 됩니다.&lt;/em&gt;&lt;/string&gt;
 &lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀은 계약자 정보만 수정하며, 정보 변경이 필요한 경우 서비스센터를 방문했으나, 로그인이 안되는 경우로, 전화번호나 이름 철자 하나가 틀린 경우에만 수정이 가능합니다. 나머지는 서비스센터로 안내합니다.&lt;/em&gt;&lt;/string&gt;
@@ -4127,7 +4129,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -4160,21 +4162,21 @@
     </row>
     <row r="2" spans="1:6" ht="69">
       <c r="A2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="4">
         <v>45469</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="258.75">
+    <row r="3" spans="1:6" ht="276">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
@@ -4194,17 +4196,17 @@
     </row>
     <row r="4" spans="1:6" ht="224.25">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="4">
         <v>45468</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -4219,7 +4221,7 @@
         <v>190</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>9</v>
@@ -4228,30 +4230,30 @@
     </row>
     <row r="6" spans="1:6" ht="103.5">
       <c r="A6" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="4">
         <v>45468</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="86.25">
       <c r="A7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="4">
         <v>45468</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
@@ -4269,7 +4271,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
@@ -4284,10 +4286,10 @@
         <v>45467</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>9</v>
@@ -4296,14 +4298,14 @@
     </row>
     <row r="10" spans="1:6" ht="87.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="4">
         <v>45467</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>9</v>
@@ -4312,14 +4314,14 @@
     </row>
     <row r="11" spans="1:6" ht="138">
       <c r="A11" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="4">
         <v>45467</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>9</v>
@@ -4328,14 +4330,14 @@
     </row>
     <row r="12" spans="1:6" ht="293.25">
       <c r="A12" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="4">
         <v>45467</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>173</v>
@@ -4344,14 +4346,14 @@
     </row>
     <row r="13" spans="1:6" ht="396.75">
       <c r="A13" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="4">
         <v>45467</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>9</v>
@@ -4360,14 +4362,14 @@
     </row>
     <row r="14" spans="1:6" ht="409.5">
       <c r="A14" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="4">
         <v>45467</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>9</v>
@@ -4376,14 +4378,14 @@
     </row>
     <row r="15" spans="1:6" ht="172.5">
       <c r="A15" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="4">
         <v>45467</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>9</v>
@@ -4392,14 +4394,14 @@
     </row>
     <row r="16" spans="1:6" ht="409.5">
       <c r="A16" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" s="4">
         <v>45467</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>9</v>
@@ -4408,14 +4410,14 @@
     </row>
     <row r="17" spans="1:6" ht="409.5">
       <c r="A17" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" s="4">
         <v>45467</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>9</v>
@@ -4424,30 +4426,30 @@
     </row>
     <row r="18" spans="1:6" ht="409.5">
       <c r="A18" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="17">
         <v>45467</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="409.5">
       <c r="A19" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="4">
         <v>45464</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>9</v>
@@ -4616,16 +4618,16 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="327.75">
+    <row r="30" spans="1:6" ht="345">
       <c r="A30" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="4">
         <v>45463</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="5" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>9</v>
@@ -4634,14 +4636,14 @@
     </row>
     <row r="31" spans="1:6" ht="327.75">
       <c r="A31" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" s="4">
         <v>45463</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>9</v>
@@ -4650,14 +4652,14 @@
     </row>
     <row r="32" spans="1:6" ht="207">
       <c r="A32" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="4">
         <v>45463</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>9</v>
@@ -4666,14 +4668,14 @@
     </row>
     <row r="33" spans="1:6" ht="409.5">
       <c r="A33" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B33" s="4">
         <v>45463</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>9</v>
@@ -4682,14 +4684,14 @@
     </row>
     <row r="34" spans="1:6" ht="409.5">
       <c r="A34" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="4">
         <v>45463</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>9</v>
@@ -4698,14 +4700,14 @@
     </row>
     <row r="35" spans="1:6" ht="409.5">
       <c r="A35" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="4">
         <v>45463</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>9</v>
@@ -4714,14 +4716,14 @@
     </row>
     <row r="36" spans="1:6" ht="409.5">
       <c r="A36" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="4">
         <v>45463</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>9</v>
@@ -4730,14 +4732,14 @@
     </row>
     <row r="37" spans="1:6" ht="276">
       <c r="A37" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B37" s="4">
         <v>45463</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>9</v>
@@ -4746,14 +4748,14 @@
     </row>
     <row r="38" spans="1:6" ht="409.5">
       <c r="A38" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" s="4">
         <v>45463</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>9</v>
@@ -5802,14 +5804,14 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection sqref="A1:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>

--- a/kbase.xlsx
+++ b/kbase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunho.shim\Desktop\KBASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C779FF0F-E069-4099-B279-671FE792BA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD181337-491A-43DB-90C8-C84CAAFE5699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31365" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{C7E0AF8F-4325-C540-BA86-ECB563960CC8}"/>
   </bookViews>
@@ -3585,11 +3585,13 @@
   <si>
     <t>고객이 Hej Volvo 앱의 차량 정보 동기화를 위해 문의하는 경우 아래 기준으로 진행합니다.
 &lt;br&gt;
+&lt;br&gt;&lt;div style='border-left: solid orange; color: orange;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt; 중요
+&lt;br&gt;Hej Volvo앱은 DMS 상 계약자 이름과 전화번호가 일치하면 자동으로 차량 정보가 연동 됩니다.&lt;/div&gt;
+&lt;br&gt;
 &lt;br&gt;&lt;div style='border-left: solid #FF4444; color: #CC0000;'&gt;&lt;i class="fa-solid fa-triangle-exclamation"&gt;&lt;/i&gt;경고
-&lt;br&gt;Hej Volvo앱은 DMS 상 계약자 이름과 전화번호가 일치하면 자동으로 차량 정보가 연동 됩니다.&lt;/div&gt;
-&lt;br&gt;
 &lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀에서는 절대 실운전자 정보를 수정하면 안 됩니다.&lt;/em&gt;&lt;/string&gt;
-&lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀은 계약자 정보만 수정하며, 정보 변경이 필요한 경우 서비스센터를 방문했으나, 로그인이 안되는 경우로, 전화번호나 이름 철자 하나가 틀린 경우에만 수정이 가능합니다. 나머지는 서비스센터로 안내합니다.&lt;/em&gt;&lt;/string&gt;
+&lt;br&gt;&lt;string style="color: red;"&gt;&lt;em&gt;고객지원팀은 계약자 정보만 수정하며, 정보 변경이 필요한 경우 서비스센터를 방문했으나, 로그인이 안되는 경우로,
+&lt;br&gt;전화번호나 이름 철자 하나가 틀린 경우에만 수정이 가능합니다. 나머지는 서비스센터로 안내합니다.&lt;/em&gt;&lt;/string&gt;&lt;/div&gt;
 &lt;br&gt;&lt;h3&gt;계약자 정보 변경을 위해 다음 정보를 고객으로부터 수집한 후 수정합니다.&lt;/h3&gt;
 1. 실운전자 정보 (실운전자에게 Callback하여 해당 내용을 확인해야 합니다.)
 &lt;br&gt;2. 차량등록증 (차량등록증 상에 리스사로 되어있는 경우 차량등록증+차대번호와 실운전자가 기재된 리스계약서)
@@ -4176,7 +4178,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="276">
+    <row r="3" spans="1:6" ht="293.25">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
